--- a/Out/OPCIONES PARA ICA1B - 1.xlsx
+++ b/Out/OPCIONES PARA ICA1B - 1.xlsx
@@ -475,14 +475,26 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -491,14 +503,26 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -507,18 +531,26 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -527,19 +559,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,13 +585,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -565,13 +601,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,13 +617,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -597,13 +633,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -613,17 +649,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -633,24 +673,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -661,24 +693,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -689,24 +713,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -811,18 +827,14 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -831,18 +843,14 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -851,18 +859,14 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -871,18 +875,14 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1038,9 +1038,17 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1050,9 +1058,17 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1062,13 +1078,17 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1079,13 +1099,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1095,13 +1115,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1111,13 +1131,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1126,22 +1146,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1150,22 +1162,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1175,25 +1179,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI4]</t>
+          <t>LAB. QUÍMICA [LQU4]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1203,13 +1207,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1223,13 +1231,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1243,13 +1255,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1261,17 +1277,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -1281,17 +1289,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -1301,17 +1301,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -1321,17 +1313,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -1343,11 +1327,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -1359,11 +1347,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -1375,11 +1367,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -1391,11 +1387,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -1599,13 +1599,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -1615,13 +1619,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -1631,15 +1639,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1651,19 +1659,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1673,13 +1685,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1689,13 +1701,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1704,14 +1716,22 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1720,14 +1740,22 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1737,17 +1765,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1757,24 +1797,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1785,24 +1817,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1813,24 +1837,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1887,17 +1903,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -1907,17 +1915,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -1927,17 +1927,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -1947,17 +1939,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -1970,7 +1954,11 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1982,7 +1970,11 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1994,7 +1986,11 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2006,7 +2002,11 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2162,9 +2162,17 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2174,9 +2182,17 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2186,13 +2202,17 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2203,13 +2223,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2219,13 +2239,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2235,13 +2255,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2251,13 +2271,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2267,13 +2287,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2283,17 +2303,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2303,24 +2327,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2331,24 +2347,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2359,24 +2367,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2435,11 +2435,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -2451,11 +2455,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -2467,11 +2475,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -2483,11 +2495,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -2497,18 +2513,14 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2517,18 +2529,14 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2537,18 +2545,14 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2557,18 +2561,14 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2724,11 +2724,7 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -2740,11 +2736,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -2756,16 +2748,8 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -2776,18 +2760,14 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2797,13 +2777,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2813,13 +2793,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2828,14 +2808,22 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2844,14 +2832,22 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2861,17 +2857,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI7]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2881,24 +2889,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2909,24 +2909,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2937,24 +2929,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2963,17 +2947,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -2983,17 +2959,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -3003,17 +2971,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -3023,17 +2983,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -3043,9 +2995,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -3055,9 +3015,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -3067,9 +3035,17 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -3079,9 +3055,17 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -3094,7 +3078,11 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3106,7 +3094,11 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3118,7 +3110,11 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3130,7 +3126,11 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3285,9 +3285,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -3297,9 +3305,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -3309,11 +3325,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -3325,15 +3345,31 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3342,14 +3378,22 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3358,14 +3402,22 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3375,13 +3427,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3391,13 +3443,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3407,17 +3459,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3427,24 +3483,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3455,24 +3503,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3483,24 +3523,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI5]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3509,17 +3541,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -3529,17 +3553,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -3549,17 +3565,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -3569,17 +3577,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -3589,11 +3589,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -3605,11 +3601,7 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -3621,11 +3613,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -3637,11 +3625,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -3656,7 +3640,11 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3668,7 +3656,11 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3680,7 +3672,11 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3692,7 +3688,11 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3848,11 +3848,7 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -3864,11 +3860,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -3880,16 +3872,8 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -3902,16 +3886,20 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3920,14 +3908,22 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3936,14 +3932,22 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI4]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3952,22 +3956,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3976,22 +3972,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4001,25 +3989,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4029,13 +4013,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -4049,13 +4033,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -4069,13 +4053,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -4135,9 +4119,17 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -4147,9 +4139,17 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -4159,9 +4159,17 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -4171,9 +4179,17 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -4183,18 +4199,14 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -4203,18 +4215,14 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -4223,18 +4231,14 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4243,18 +4247,14 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4409,13 +4409,17 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -4425,13 +4429,17 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -4441,15 +4449,15 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -4461,19 +4469,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4483,13 +4495,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4499,13 +4511,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4514,22 +4526,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4538,22 +4542,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4563,25 +4559,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4591,16 +4583,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -4611,16 +4611,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -4631,16 +4639,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -4697,17 +4713,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -4717,17 +4725,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -4737,17 +4737,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -4757,17 +4749,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -4780,7 +4764,11 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -4792,7 +4780,11 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -4804,7 +4796,11 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4816,7 +4812,11 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4997,11 +4997,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -5013,13 +5009,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5029,13 +5025,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5045,13 +5041,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5060,22 +5056,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5084,22 +5072,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5109,25 +5089,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5137,16 +5113,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -5157,16 +5141,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -5177,16 +5169,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI6]</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -5245,11 +5245,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -5261,11 +5265,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -5277,11 +5285,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -5293,11 +5305,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ13]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -5307,18 +5323,14 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -5327,18 +5339,14 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5347,18 +5355,14 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5367,18 +5371,14 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU8]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -5533,14 +5533,26 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -5549,14 +5561,26 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -5565,18 +5589,26 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
+          <t>QUÍMICA [QUI1]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>QUÍMICA [QUI1]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5585,19 +5617,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>LAB. QUÍMICA [LQ10]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5607,13 +5643,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5623,13 +5659,13 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5638,22 +5674,14 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5662,22 +5690,14 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>LAB. TOPOGRAFÍA B [LTT3]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5687,25 +5707,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>QUÍMICA [QUI4]</t>
+          <t>LAB. QUÍMICA [LQU4]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>QUÍMICA [QUI4]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LAB. TOPOGRAFÍA B [LTT3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5715,13 +5735,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -5735,13 +5759,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -5755,13 +5783,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ÁLGEBRA [AL1]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LAB. QUÍMICA [LQU4]</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ÁLGEBRA [ALG1]</t>
+          <t>ÁLGEBRA [AL1]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -5773,17 +5805,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -5793,17 +5817,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -5813,17 +5829,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -5833,17 +5841,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
